--- a/設計書等/DB定義書.xlsx
+++ b/設計書等/DB定義書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H.Kusaba\Documents\game_register\設計書等\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25DFA38-6581-4C33-9668-D6ED6C51A39C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBCCA34-C89F-4AED-96A9-2285CFBB9F0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1200" windowWidth="20640" windowHeight="21075" activeTab="1" xr2:uid="{C9CFD58F-600C-4C99-941E-6D1FCCA933FB}"/>
   </bookViews>
@@ -2073,7 +2073,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
